--- a/medicine/Psychotrope/Jacques_Hennessy/Jacques_Hennessy.xlsx
+++ b/medicine/Psychotrope/Jacques_Hennessy/Jacques_Hennessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Hennessy (11 octobre 1765 à Ostende - 21 avril 1843 à Paris), est un homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Richard Hennessy, Jacques Hennessy est négociant en eaux-de-vie à Cognac et membre du conseil d'arrondissement de la Charente. Villèle le nomma, en 1824, président du 3e collège électoral de ce département qui, le 2 août, l'élut député en remplacement de Otard, décédé, par 186 voix (191 votants, 309 inscrits).
 À la Chambre, Hennessy prit place au côté droit. Il vota pour le ministère, repoussa toutes les motions émanées de l'opposition, fut réélu, le 17 novembre 1827, et se rallia, soudain aux constitutionnels du groupe Agier. Il combattit avec eux le ministère Polignac et fut des 221. Le 23 juin 1830, il obtint le renouvellement de son mandat par 236 voix (308 votants, 351 inscrits). Hennessy prit part à l'établissement de la monarchie de Louis-Philippe, et fit partie de la majorité.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Jacques Hennessy », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
